--- a/code/error_analysis.xlsx
+++ b/code/error_analysis.xlsx
@@ -13,7 +13,187 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
   <si>
     <t>Image_Name</t>
   </si>
@@ -250,24 +430,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B2" s="0">
         <v>-0.00050969124563793322</v>
@@ -284,7 +464,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0">
         <v>-0.0010051585495371995</v>
@@ -301,7 +481,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B4" s="0">
         <v>-0.00045753679259596947</v>
@@ -318,7 +498,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B5" s="0">
         <v>-0.00040301168259748721</v>
@@ -335,7 +515,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="B6" s="0">
         <v>-0.00045990744955237695</v>
@@ -352,7 +532,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B7" s="0">
         <v>-0.00099567592171145858</v>
@@ -369,7 +549,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="B8" s="0">
         <v>-0.00063770672128660166</v>
@@ -386,7 +566,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="B9" s="0">
         <v>-0.0010952435138825711</v>
@@ -403,7 +583,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B10" s="0">
         <v>-0.0013868343195266863</v>
@@ -420,7 +600,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B11" s="0">
         <v>-0.0016073054164770229</v>

--- a/code/error_analysis.xlsx
+++ b/code/error_analysis.xlsx
@@ -13,7 +13,2392 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="915">
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
   <si>
     <t>Image_Name</t>
   </si>
@@ -430,24 +2815,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>105</v>
+        <v>900</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>116</v>
+        <v>911</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>117</v>
+        <v>912</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>118</v>
+        <v>913</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>119</v>
+        <v>914</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>106</v>
+        <v>901</v>
       </c>
       <c r="B2" s="0">
         <v>-0.00050969124563793322</v>
@@ -464,7 +2849,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>902</v>
       </c>
       <c r="B3" s="0">
         <v>-0.0010051585495371995</v>
@@ -481,7 +2866,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>108</v>
+        <v>903</v>
       </c>
       <c r="B4" s="0">
         <v>-0.00045753679259596947</v>
@@ -498,7 +2883,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>109</v>
+        <v>904</v>
       </c>
       <c r="B5" s="0">
         <v>-0.00040301168259748721</v>
@@ -515,7 +2900,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>110</v>
+        <v>905</v>
       </c>
       <c r="B6" s="0">
         <v>-0.00045990744955237695</v>
@@ -532,7 +2917,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>111</v>
+        <v>906</v>
       </c>
       <c r="B7" s="0">
         <v>-0.00099567592171145858</v>
@@ -549,7 +2934,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>112</v>
+        <v>907</v>
       </c>
       <c r="B8" s="0">
         <v>-0.00063770672128660166</v>
@@ -566,7 +2951,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>113</v>
+        <v>908</v>
       </c>
       <c r="B9" s="0">
         <v>-0.0010952435138825711</v>
@@ -583,7 +2968,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>114</v>
+        <v>909</v>
       </c>
       <c r="B10" s="0">
         <v>-0.0013868343195266863</v>
@@ -600,7 +2985,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>115</v>
+        <v>910</v>
       </c>
       <c r="B11" s="0">
         <v>-0.0016073054164770229</v>

--- a/code/error_analysis.xlsx
+++ b/code/error_analysis.xlsx
@@ -13,7 +13,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="945">
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
+  <si>
+    <t>Image_Name</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>000692</t>
+  </si>
+  <si>
+    <t>001100</t>
+  </si>
+  <si>
+    <t>001396</t>
+  </si>
+  <si>
+    <t>002266</t>
+  </si>
+  <si>
+    <t>002589</t>
+  </si>
+  <si>
+    <t>002972</t>
+  </si>
+  <si>
+    <t>003128</t>
+  </si>
+  <si>
+    <t>004036</t>
+  </si>
+  <si>
+    <t>005402</t>
+  </si>
+  <si>
+    <t>Dry_Area_Error</t>
+  </si>
+  <si>
+    <t>Dry_Area_Perc_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Error</t>
+  </si>
+  <si>
+    <t>Contact_Line_Perc_Error</t>
+  </si>
   <si>
     <t>Image_Name</t>
   </si>
@@ -2815,24 +2905,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>900</v>
+        <v>930</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>912</v>
+        <v>942</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>913</v>
+        <v>943</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>914</v>
+        <v>944</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="B2" s="0">
         <v>-0.00050969124563793322</v>
@@ -2849,7 +2939,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>902</v>
+        <v>932</v>
       </c>
       <c r="B3" s="0">
         <v>-0.0010051585495371995</v>
@@ -2866,7 +2956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>903</v>
+        <v>933</v>
       </c>
       <c r="B4" s="0">
         <v>-0.00045753679259596947</v>
@@ -2883,7 +2973,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>904</v>
+        <v>934</v>
       </c>
       <c r="B5" s="0">
         <v>-0.00040301168259748721</v>
@@ -2900,7 +2990,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>905</v>
+        <v>935</v>
       </c>
       <c r="B6" s="0">
         <v>-0.00045990744955237695</v>
@@ -2917,7 +3007,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>906</v>
+        <v>936</v>
       </c>
       <c r="B7" s="0">
         <v>-0.00099567592171145858</v>
@@ -2934,7 +3024,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>907</v>
+        <v>937</v>
       </c>
       <c r="B8" s="0">
         <v>-0.00063770672128660166</v>
@@ -2951,7 +3041,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>908</v>
+        <v>938</v>
       </c>
       <c r="B9" s="0">
         <v>-0.0010952435138825711</v>
@@ -2968,7 +3058,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>909</v>
+        <v>939</v>
       </c>
       <c r="B10" s="0">
         <v>-0.0013868343195266863</v>
@@ -2985,7 +3075,7 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>910</v>
+        <v>940</v>
       </c>
       <c r="B11" s="0">
         <v>-0.0016073054164770229</v>
